--- a/attendance-files/ITA/ITA Attendance.xlsx
+++ b/attendance-files/ITA/ITA Attendance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="189">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="K3" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="L3" s="12">
         <f t="shared" si="1"/>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="F7" s="39">
         <f t="shared" ref="F7:F92" si="5">COUNTIF(G7:P7,"P")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7" s="40" t="s">
         <v>29</v>
@@ -1771,7 +1771,9 @@
       <c r="J7" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="38"/>
+      <c r="K7" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L7" s="42"/>
       <c r="M7" s="38"/>
       <c r="N7" s="38"/>
@@ -1806,7 +1808,7 @@
       </c>
       <c r="F8" s="39">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" s="41" t="s">
         <v>30</v>
@@ -1820,7 +1822,9 @@
       <c r="J8" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="42"/>
+      <c r="K8" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L8" s="42"/>
       <c r="M8" s="38"/>
       <c r="N8" s="38"/>
@@ -1855,7 +1859,7 @@
       </c>
       <c r="F9" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G9" s="41" t="s">
         <v>30</v>
@@ -1869,7 +1873,9 @@
       <c r="J9" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="42"/>
+      <c r="K9" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L9" s="42"/>
       <c r="M9" s="38"/>
       <c r="N9" s="38"/>
@@ -1904,7 +1910,7 @@
       </c>
       <c r="F10" s="39">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10" s="41" t="s">
         <v>30</v>
@@ -1918,7 +1924,9 @@
       <c r="J10" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="38"/>
+      <c r="K10" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L10" s="42"/>
       <c r="M10" s="42"/>
       <c r="N10" s="38"/>
@@ -1953,7 +1961,7 @@
       </c>
       <c r="F11" s="39">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" s="41" t="s">
         <v>29</v>
@@ -1967,7 +1975,9 @@
       <c r="J11" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K11" s="42"/>
+      <c r="K11" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L11" s="38"/>
       <c r="M11" s="38"/>
       <c r="N11" s="38"/>
@@ -2002,7 +2012,7 @@
       </c>
       <c r="F12" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G12" s="41" t="s">
         <v>30</v>
@@ -2016,7 +2026,9 @@
       <c r="J12" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="38"/>
+      <c r="K12" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L12" s="38"/>
       <c r="M12" s="38"/>
       <c r="N12" s="38"/>
@@ -2047,7 +2059,7 @@
       <c r="D13" s="37"/>
       <c r="E13" s="38">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F13" s="39">
         <f t="shared" si="5"/>
@@ -2065,7 +2077,9 @@
       <c r="J13" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="K13" s="38"/>
+      <c r="K13" s="41" t="s">
+        <v>29</v>
+      </c>
       <c r="L13" s="42"/>
       <c r="M13" s="38"/>
       <c r="N13" s="38"/>
@@ -2096,7 +2110,7 @@
       <c r="D14" s="37"/>
       <c r="E14" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="39">
         <f t="shared" si="5"/>
@@ -2114,7 +2128,9 @@
       <c r="J14" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K14" s="38"/>
+      <c r="K14" s="41" t="s">
+        <v>29</v>
+      </c>
       <c r="L14" s="42"/>
       <c r="M14" s="38"/>
       <c r="N14" s="38"/>
@@ -2149,7 +2165,7 @@
       </c>
       <c r="F15" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G15" s="41" t="s">
         <v>30</v>
@@ -2163,7 +2179,9 @@
       <c r="J15" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K15" s="38"/>
+      <c r="K15" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L15" s="42"/>
       <c r="M15" s="42"/>
       <c r="N15" s="42"/>
@@ -2198,7 +2216,7 @@
       </c>
       <c r="F16" s="39">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G16" s="41" t="s">
         <v>30</v>
@@ -2212,7 +2230,9 @@
       <c r="J16" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="K16" s="42"/>
+      <c r="K16" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L16" s="38"/>
       <c r="M16" s="38"/>
       <c r="N16" s="38"/>
@@ -2247,7 +2267,7 @@
       </c>
       <c r="F17" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G17" s="41" t="s">
         <v>30</v>
@@ -2261,7 +2281,9 @@
       <c r="J17" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K17" s="42"/>
+      <c r="K17" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L17" s="38"/>
       <c r="M17" s="38"/>
       <c r="N17" s="38"/>
@@ -2296,7 +2318,7 @@
       </c>
       <c r="F18" s="39">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G18" s="41" t="s">
         <v>30</v>
@@ -2310,7 +2332,9 @@
       <c r="J18" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="K18" s="38"/>
+      <c r="K18" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L18" s="38"/>
       <c r="M18" s="38"/>
       <c r="N18" s="42"/>
@@ -2345,7 +2369,7 @@
       </c>
       <c r="F19" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G19" s="41" t="s">
         <v>30</v>
@@ -2359,7 +2383,9 @@
       <c r="J19" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K19" s="42"/>
+      <c r="K19" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L19" s="38"/>
       <c r="M19" s="38"/>
       <c r="N19" s="42"/>
@@ -2394,7 +2420,7 @@
       </c>
       <c r="F20" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G20" s="41" t="s">
         <v>30</v>
@@ -2408,7 +2434,9 @@
       <c r="J20" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K20" s="38"/>
+      <c r="K20" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L20" s="42"/>
       <c r="M20" s="38"/>
       <c r="N20" s="42"/>
@@ -2443,7 +2471,7 @@
       </c>
       <c r="F21" s="39">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G21" s="41" t="s">
         <v>30</v>
@@ -2457,7 +2485,9 @@
       <c r="J21" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="K21" s="42"/>
+      <c r="K21" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L21" s="38"/>
       <c r="M21" s="38"/>
       <c r="N21" s="38"/>
@@ -2492,7 +2522,7 @@
       </c>
       <c r="F22" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G22" s="41" t="s">
         <v>30</v>
@@ -2506,7 +2536,9 @@
       <c r="J22" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K22" s="38"/>
+      <c r="K22" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L22" s="38"/>
       <c r="M22" s="38"/>
       <c r="N22" s="38"/>
@@ -2541,7 +2573,7 @@
       </c>
       <c r="F23" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G23" s="41" t="s">
         <v>30</v>
@@ -2555,7 +2587,9 @@
       <c r="J23" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K23" s="38"/>
+      <c r="K23" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L23" s="38"/>
       <c r="M23" s="38"/>
       <c r="N23" s="38"/>
@@ -2590,7 +2624,7 @@
       </c>
       <c r="F24" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G24" s="41" t="s">
         <v>30</v>
@@ -2604,7 +2638,9 @@
       <c r="J24" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K24" s="38"/>
+      <c r="K24" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L24" s="38"/>
       <c r="M24" s="38"/>
       <c r="N24" s="38"/>
@@ -2635,7 +2671,7 @@
       <c r="D25" s="37"/>
       <c r="E25" s="38">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" s="39">
         <f t="shared" si="5"/>
@@ -2653,7 +2689,9 @@
       <c r="J25" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K25" s="38"/>
+      <c r="K25" s="41" t="s">
+        <v>29</v>
+      </c>
       <c r="L25" s="38"/>
       <c r="M25" s="38"/>
       <c r="N25" s="42"/>
@@ -2688,7 +2726,7 @@
       </c>
       <c r="F26" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G26" s="41" t="s">
         <v>30</v>
@@ -2702,7 +2740,9 @@
       <c r="J26" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K26" s="38"/>
+      <c r="K26" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L26" s="38"/>
       <c r="M26" s="38"/>
       <c r="N26" s="38"/>
@@ -2737,7 +2777,7 @@
       </c>
       <c r="F27" s="39">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G27" s="41" t="s">
         <v>30</v>
@@ -2751,7 +2791,9 @@
       <c r="J27" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="K27" s="38"/>
+      <c r="K27" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L27" s="38"/>
       <c r="M27" s="38"/>
       <c r="N27" s="38"/>
@@ -2786,7 +2828,7 @@
       </c>
       <c r="F28" s="39">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G28" s="41" t="s">
         <v>30</v>
@@ -2800,7 +2842,9 @@
       <c r="J28" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="K28" s="42"/>
+      <c r="K28" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L28" s="42"/>
       <c r="M28" s="38"/>
       <c r="N28" s="38"/>
@@ -2835,7 +2879,7 @@
       </c>
       <c r="F29" s="39">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G29" s="41" t="s">
         <v>30</v>
@@ -2849,7 +2893,9 @@
       <c r="J29" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K29" s="38"/>
+      <c r="K29" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L29" s="42"/>
       <c r="M29" s="38"/>
       <c r="N29" s="38"/>
@@ -2884,7 +2930,7 @@
       </c>
       <c r="F30" s="39">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G30" s="41" t="s">
         <v>30</v>
@@ -2898,7 +2944,9 @@
       <c r="J30" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="K30" s="42"/>
+      <c r="K30" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L30" s="38"/>
       <c r="M30" s="38"/>
       <c r="N30" s="38"/>
@@ -2933,7 +2981,7 @@
       </c>
       <c r="F31" s="39">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G31" s="41" t="s">
         <v>30</v>
@@ -2947,7 +2995,9 @@
       <c r="J31" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="K31" s="38"/>
+      <c r="K31" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L31" s="38"/>
       <c r="M31" s="42"/>
       <c r="N31" s="42"/>
@@ -2982,7 +3032,7 @@
       </c>
       <c r="F32" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G32" s="41" t="s">
         <v>30</v>
@@ -2996,7 +3046,9 @@
       <c r="J32" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K32" s="42"/>
+      <c r="K32" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L32" s="42"/>
       <c r="M32" s="38"/>
       <c r="N32" s="38"/>
@@ -3027,7 +3079,7 @@
       <c r="D33" s="37"/>
       <c r="E33" s="38">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33" s="39">
         <f t="shared" si="5"/>
@@ -3045,7 +3097,9 @@
       <c r="J33" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="K33" s="38"/>
+      <c r="K33" s="41" t="s">
+        <v>29</v>
+      </c>
       <c r="L33" s="42"/>
       <c r="M33" s="42"/>
       <c r="N33" s="38"/>
@@ -3080,7 +3134,7 @@
       </c>
       <c r="F34" s="39">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G34" s="41" t="s">
         <v>30</v>
@@ -3094,7 +3148,9 @@
       <c r="J34" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="K34" s="42"/>
+      <c r="K34" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L34" s="38"/>
       <c r="M34" s="38"/>
       <c r="N34" s="38"/>
@@ -3129,7 +3185,7 @@
       </c>
       <c r="F35" s="39">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G35" s="41" t="s">
         <v>30</v>
@@ -3143,7 +3199,9 @@
       <c r="J35" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K35" s="38"/>
+      <c r="K35" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L35" s="42"/>
       <c r="M35" s="38"/>
       <c r="N35" s="38"/>
@@ -3178,7 +3236,7 @@
       </c>
       <c r="F36" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G36" s="41" t="s">
         <v>30</v>
@@ -3192,7 +3250,9 @@
       <c r="J36" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K36" s="38"/>
+      <c r="K36" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L36" s="38"/>
       <c r="M36" s="38"/>
       <c r="N36" s="38"/>
@@ -3227,7 +3287,7 @@
       </c>
       <c r="F37" s="39">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G37" s="41" t="s">
         <v>30</v>
@@ -3241,7 +3301,9 @@
       <c r="J37" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K37" s="38"/>
+      <c r="K37" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L37" s="38"/>
       <c r="M37" s="38"/>
       <c r="N37" s="38"/>
@@ -3276,7 +3338,7 @@
       </c>
       <c r="F38" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G38" s="41" t="s">
         <v>30</v>
@@ -3290,7 +3352,9 @@
       <c r="J38" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K38" s="42"/>
+      <c r="K38" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L38" s="38"/>
       <c r="M38" s="38"/>
       <c r="N38" s="38"/>
@@ -3325,7 +3389,7 @@
       </c>
       <c r="F39" s="39">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G39" s="41" t="s">
         <v>30</v>
@@ -3339,7 +3403,9 @@
       <c r="J39" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="K39" s="38"/>
+      <c r="K39" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L39" s="38"/>
       <c r="M39" s="38"/>
       <c r="N39" s="42"/>
@@ -3374,7 +3440,7 @@
       </c>
       <c r="F40" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G40" s="41" t="s">
         <v>30</v>
@@ -3388,7 +3454,9 @@
       <c r="J40" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K40" s="38"/>
+      <c r="K40" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L40" s="42"/>
       <c r="M40" s="42"/>
       <c r="N40" s="42"/>
@@ -3423,7 +3491,7 @@
       </c>
       <c r="F41" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G41" s="41" t="s">
         <v>30</v>
@@ -3437,7 +3505,9 @@
       <c r="J41" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K41" s="42"/>
+      <c r="K41" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L41" s="38"/>
       <c r="M41" s="38"/>
       <c r="N41" s="42"/>
@@ -3472,7 +3542,7 @@
       </c>
       <c r="F42" s="39">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G42" s="41" t="s">
         <v>30</v>
@@ -3486,7 +3556,9 @@
       <c r="J42" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="K42" s="38"/>
+      <c r="K42" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L42" s="38"/>
       <c r="M42" s="38"/>
       <c r="N42" s="38"/>
@@ -3521,7 +3593,7 @@
       </c>
       <c r="F43" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G43" s="41" t="s">
         <v>30</v>
@@ -3535,7 +3607,9 @@
       <c r="J43" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K43" s="38"/>
+      <c r="K43" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L43" s="38"/>
       <c r="M43" s="42"/>
       <c r="N43" s="42"/>
@@ -3570,7 +3644,7 @@
       </c>
       <c r="F44" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G44" s="41" t="s">
         <v>30</v>
@@ -3584,7 +3658,9 @@
       <c r="J44" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K44" s="38"/>
+      <c r="K44" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L44" s="38"/>
       <c r="M44" s="42"/>
       <c r="N44" s="42"/>
@@ -3619,7 +3695,7 @@
       </c>
       <c r="F45" s="39">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G45" s="41" t="s">
         <v>30</v>
@@ -3633,7 +3709,9 @@
       <c r="J45" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="K45" s="38"/>
+      <c r="K45" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L45" s="38"/>
       <c r="M45" s="38"/>
       <c r="N45" s="38"/>
@@ -3668,7 +3746,7 @@
       </c>
       <c r="F46" s="39">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G46" s="41" t="s">
         <v>30</v>
@@ -3682,7 +3760,9 @@
       <c r="J46" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="K46" s="38"/>
+      <c r="K46" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L46" s="38"/>
       <c r="M46" s="38"/>
       <c r="N46" s="42"/>
@@ -3717,7 +3797,7 @@
       </c>
       <c r="F47" s="39">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G47" s="41" t="s">
         <v>30</v>
@@ -3731,7 +3811,9 @@
       <c r="J47" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="K47" s="38"/>
+      <c r="K47" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L47" s="38"/>
       <c r="M47" s="42"/>
       <c r="N47" s="38"/>
@@ -3766,7 +3848,7 @@
       </c>
       <c r="F48" s="39">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G48" s="41" t="s">
         <v>30</v>
@@ -3780,7 +3862,9 @@
       <c r="J48" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="K48" s="38"/>
+      <c r="K48" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L48" s="42"/>
       <c r="M48" s="38"/>
       <c r="N48" s="38"/>
@@ -3811,7 +3895,7 @@
       <c r="D49" s="37"/>
       <c r="E49" s="38">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F49" s="39">
         <f t="shared" si="5"/>
@@ -3829,7 +3913,9 @@
       <c r="J49" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="K49" s="38"/>
+      <c r="K49" s="41" t="s">
+        <v>29</v>
+      </c>
       <c r="L49" s="38"/>
       <c r="M49" s="38"/>
       <c r="N49" s="38"/>
@@ -3864,7 +3950,7 @@
       </c>
       <c r="F50" s="39">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G50" s="41" t="s">
         <v>29</v>
@@ -3878,7 +3964,9 @@
       <c r="J50" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K50" s="38"/>
+      <c r="K50" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L50" s="38"/>
       <c r="M50" s="38"/>
       <c r="N50" s="38"/>
@@ -3913,7 +4001,7 @@
       </c>
       <c r="F51" s="39">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G51" s="41" t="s">
         <v>30</v>
@@ -3927,7 +4015,9 @@
       <c r="J51" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K51" s="38"/>
+      <c r="K51" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L51" s="38"/>
       <c r="M51" s="38"/>
       <c r="N51" s="42"/>
@@ -3962,7 +4052,7 @@
       </c>
       <c r="F52" s="39">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G52" s="41" t="s">
         <v>30</v>
@@ -3976,7 +4066,9 @@
       <c r="J52" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="K52" s="42"/>
+      <c r="K52" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L52" s="38"/>
       <c r="M52" s="38"/>
       <c r="N52" s="42"/>
@@ -4011,7 +4103,7 @@
       </c>
       <c r="F53" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G53" s="41" t="s">
         <v>30</v>
@@ -4025,7 +4117,9 @@
       <c r="J53" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K53" s="38"/>
+      <c r="K53" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L53" s="38"/>
       <c r="M53" s="42"/>
       <c r="N53" s="42"/>
@@ -4060,7 +4154,7 @@
       </c>
       <c r="F54" s="39">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G54" s="41" t="s">
         <v>30</v>
@@ -4074,7 +4168,9 @@
       <c r="J54" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="K54" s="42"/>
+      <c r="K54" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L54" s="38"/>
       <c r="M54" s="38"/>
       <c r="N54" s="42"/>
@@ -4109,7 +4205,7 @@
       </c>
       <c r="F55" s="39">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G55" s="41" t="s">
         <v>30</v>
@@ -4123,7 +4219,9 @@
       <c r="J55" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="K55" s="38"/>
+      <c r="K55" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L55" s="42"/>
       <c r="M55" s="38"/>
       <c r="N55" s="38"/>
@@ -4158,7 +4256,7 @@
       </c>
       <c r="F56" s="39">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G56" s="41" t="s">
         <v>30</v>
@@ -4172,7 +4270,9 @@
       <c r="J56" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="K56" s="38"/>
+      <c r="K56" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L56" s="38"/>
       <c r="M56" s="38"/>
       <c r="N56" s="38"/>
@@ -4207,7 +4307,7 @@
       </c>
       <c r="F57" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G57" s="41" t="s">
         <v>30</v>
@@ -4221,7 +4321,9 @@
       <c r="J57" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K57" s="38"/>
+      <c r="K57" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L57" s="42"/>
       <c r="M57" s="38"/>
       <c r="N57" s="38"/>
@@ -4256,7 +4358,7 @@
       </c>
       <c r="F58" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G58" s="41" t="s">
         <v>30</v>
@@ -4270,7 +4372,9 @@
       <c r="J58" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K58" s="42"/>
+      <c r="K58" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L58" s="38"/>
       <c r="M58" s="38"/>
       <c r="N58" s="38"/>
@@ -4305,7 +4409,7 @@
       </c>
       <c r="F59" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G59" s="41" t="s">
         <v>30</v>
@@ -4319,7 +4423,9 @@
       <c r="J59" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K59" s="38"/>
+      <c r="K59" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L59" s="38"/>
       <c r="M59" s="42"/>
       <c r="N59" s="38"/>
@@ -4354,7 +4460,7 @@
       </c>
       <c r="F60" s="39">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G60" s="41" t="s">
         <v>30</v>
@@ -4368,7 +4474,9 @@
       <c r="J60" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="K60" s="38"/>
+      <c r="K60" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L60" s="42"/>
       <c r="M60" s="38"/>
       <c r="N60" s="38"/>
@@ -4403,7 +4511,7 @@
       </c>
       <c r="F61" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G61" s="41" t="s">
         <v>30</v>
@@ -4417,7 +4525,9 @@
       <c r="J61" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K61" s="42"/>
+      <c r="K61" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L61" s="38"/>
       <c r="M61" s="38"/>
       <c r="N61" s="38"/>
@@ -4448,7 +4558,7 @@
       <c r="D62" s="37"/>
       <c r="E62" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" s="39">
         <f t="shared" si="5"/>
@@ -4466,7 +4576,9 @@
       <c r="J62" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K62" s="38"/>
+      <c r="K62" s="41" t="s">
+        <v>29</v>
+      </c>
       <c r="L62" s="38"/>
       <c r="M62" s="38"/>
       <c r="N62" s="38"/>
@@ -4497,7 +4609,7 @@
       <c r="D63" s="37"/>
       <c r="E63" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" s="39">
         <f t="shared" si="5"/>
@@ -4515,7 +4627,9 @@
       <c r="J63" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K63" s="38"/>
+      <c r="K63" s="41" t="s">
+        <v>29</v>
+      </c>
       <c r="L63" s="38"/>
       <c r="M63" s="42"/>
       <c r="N63" s="38"/>
@@ -4550,7 +4664,7 @@
       </c>
       <c r="F64" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G64" s="41" t="s">
         <v>30</v>
@@ -4564,7 +4678,9 @@
       <c r="J64" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K64" s="38"/>
+      <c r="K64" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L64" s="38"/>
       <c r="M64" s="38"/>
       <c r="N64" s="38"/>
@@ -4599,7 +4715,7 @@
       </c>
       <c r="F65" s="39">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G65" s="41" t="s">
         <v>30</v>
@@ -4613,7 +4729,9 @@
       <c r="J65" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="K65" s="38"/>
+      <c r="K65" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L65" s="38"/>
       <c r="M65" s="38"/>
       <c r="N65" s="38"/>
@@ -4648,7 +4766,7 @@
       </c>
       <c r="F66" s="39">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G66" s="41" t="s">
         <v>30</v>
@@ -4662,7 +4780,9 @@
       <c r="J66" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="K66" s="38"/>
+      <c r="K66" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L66" s="42"/>
       <c r="M66" s="38"/>
       <c r="N66" s="38"/>
@@ -4697,7 +4817,7 @@
       </c>
       <c r="F67" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G67" s="41" t="s">
         <v>30</v>
@@ -4711,7 +4831,9 @@
       <c r="J67" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K67" s="38"/>
+      <c r="K67" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L67" s="38"/>
       <c r="M67" s="38"/>
       <c r="N67" s="38"/>
@@ -4742,7 +4864,7 @@
       <c r="D68" s="37"/>
       <c r="E68" s="38">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F68" s="39">
         <f t="shared" si="5"/>
@@ -4760,7 +4882,9 @@
       <c r="J68" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="K68" s="38"/>
+      <c r="K68" s="41" t="s">
+        <v>29</v>
+      </c>
       <c r="L68" s="38"/>
       <c r="M68" s="38"/>
       <c r="N68" s="38"/>
@@ -4795,7 +4919,7 @@
       </c>
       <c r="F69" s="39">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G69" s="41" t="s">
         <v>30</v>
@@ -4809,7 +4933,9 @@
       <c r="J69" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="K69" s="38"/>
+      <c r="K69" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L69" s="38"/>
       <c r="M69" s="42"/>
       <c r="N69" s="38"/>
@@ -4844,7 +4970,7 @@
       </c>
       <c r="F70" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G70" s="41" t="s">
         <v>30</v>
@@ -4858,7 +4984,9 @@
       <c r="J70" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K70" s="38"/>
+      <c r="K70" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L70" s="38"/>
       <c r="M70" s="38"/>
       <c r="N70" s="38"/>
@@ -4893,7 +5021,7 @@
       </c>
       <c r="F71" s="39">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G71" s="41" t="s">
         <v>30</v>
@@ -4907,7 +5035,9 @@
       <c r="J71" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K71" s="38"/>
+      <c r="K71" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L71" s="38"/>
       <c r="M71" s="38"/>
       <c r="N71" s="42"/>
@@ -4942,7 +5072,7 @@
       </c>
       <c r="F72" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G72" s="41" t="s">
         <v>30</v>
@@ -4956,7 +5086,9 @@
       <c r="J72" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K72" s="38"/>
+      <c r="K72" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L72" s="38"/>
       <c r="M72" s="42"/>
       <c r="N72" s="42"/>
@@ -4991,7 +5123,7 @@
       </c>
       <c r="F73" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G73" s="41" t="s">
         <v>30</v>
@@ -5005,7 +5137,9 @@
       <c r="J73" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K73" s="38"/>
+      <c r="K73" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L73" s="42"/>
       <c r="M73" s="38"/>
       <c r="N73" s="38"/>
@@ -5040,7 +5174,7 @@
       </c>
       <c r="F74" s="39">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G74" s="41" t="s">
         <v>30</v>
@@ -5054,7 +5188,9 @@
       <c r="J74" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K74" s="38"/>
+      <c r="K74" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L74" s="38"/>
       <c r="M74" s="38"/>
       <c r="N74" s="38"/>
@@ -5089,7 +5225,7 @@
       </c>
       <c r="F75" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G75" s="41" t="s">
         <v>30</v>
@@ -5103,7 +5239,9 @@
       <c r="J75" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K75" s="42"/>
+      <c r="K75" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L75" s="38"/>
       <c r="M75" s="42"/>
       <c r="N75" s="38"/>
@@ -5138,7 +5276,7 @@
       </c>
       <c r="F76" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G76" s="41" t="s">
         <v>30</v>
@@ -5152,7 +5290,9 @@
       <c r="J76" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K76" s="38"/>
+      <c r="K76" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L76" s="38"/>
       <c r="M76" s="38"/>
       <c r="N76" s="42"/>
@@ -5187,7 +5327,7 @@
       </c>
       <c r="F77" s="39">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G77" s="41" t="s">
         <v>30</v>
@@ -5201,7 +5341,9 @@
       <c r="J77" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K77" s="38"/>
+      <c r="K77" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L77" s="38"/>
       <c r="M77" s="38"/>
       <c r="N77" s="38"/>
@@ -5236,7 +5378,7 @@
       </c>
       <c r="F78" s="39">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G78" s="43" t="s">
         <v>29</v>
@@ -5250,7 +5392,9 @@
       <c r="J78" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K78" s="38"/>
+      <c r="K78" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L78" s="38"/>
       <c r="M78" s="38"/>
       <c r="N78" s="42"/>
@@ -5285,7 +5429,7 @@
       </c>
       <c r="F79" s="39">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G79" s="41" t="s">
         <v>29</v>
@@ -5299,7 +5443,9 @@
       <c r="J79" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K79" s="38"/>
+      <c r="K79" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L79" s="38"/>
       <c r="M79" s="38"/>
       <c r="N79" s="38"/>
@@ -5334,7 +5480,7 @@
       </c>
       <c r="F80" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G80" s="41" t="s">
         <v>30</v>
@@ -5348,7 +5494,9 @@
       <c r="J80" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K80" s="38"/>
+      <c r="K80" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L80" s="42"/>
       <c r="M80" s="42"/>
       <c r="N80" s="38"/>
@@ -5383,7 +5531,7 @@
       </c>
       <c r="F81" s="39">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G81" s="41" t="s">
         <v>30</v>
@@ -5397,7 +5545,9 @@
       <c r="J81" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="K81" s="38"/>
+      <c r="K81" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L81" s="38"/>
       <c r="M81" s="38"/>
       <c r="N81" s="38"/>
@@ -5432,7 +5582,7 @@
       </c>
       <c r="F82" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G82" s="41" t="s">
         <v>30</v>
@@ -5446,7 +5596,9 @@
       <c r="J82" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K82" s="42"/>
+      <c r="K82" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L82" s="38"/>
       <c r="M82" s="38"/>
       <c r="N82" s="38"/>
@@ -5481,7 +5633,7 @@
       </c>
       <c r="F83" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G83" s="41" t="s">
         <v>30</v>
@@ -5495,7 +5647,9 @@
       <c r="J83" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K83" s="38"/>
+      <c r="K83" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L83" s="42"/>
       <c r="M83" s="38"/>
       <c r="N83" s="38"/>
@@ -5530,7 +5684,7 @@
       </c>
       <c r="F84" s="39">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G84" s="41" t="s">
         <v>29</v>
@@ -5544,7 +5698,9 @@
       <c r="J84" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="K84" s="38"/>
+      <c r="K84" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L84" s="42"/>
       <c r="M84" s="42"/>
       <c r="N84" s="38"/>
@@ -5579,7 +5735,7 @@
       </c>
       <c r="F85" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G85" s="41" t="s">
         <v>30</v>
@@ -5593,7 +5749,9 @@
       <c r="J85" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K85" s="38"/>
+      <c r="K85" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L85" s="38"/>
       <c r="M85" s="38"/>
       <c r="N85" s="42"/>
@@ -5628,7 +5786,7 @@
       </c>
       <c r="F86" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G86" s="41" t="s">
         <v>30</v>
@@ -5642,7 +5800,9 @@
       <c r="J86" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K86" s="38"/>
+      <c r="K86" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="L86" s="42"/>
       <c r="M86" s="38"/>
       <c r="N86" s="42"/>

--- a/attendance-files/ITA/ITA Attendance.xlsx
+++ b/attendance-files/ITA/ITA Attendance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="189">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -648,7 +648,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -671,6 +671,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDBE5F1"/>
         <bgColor rgb="FFDBE5F1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1063,7 +1069,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1186,8 +1192,11 @@
     <xf borderId="25" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="25" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="25" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="25" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="25" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -1550,23 +1559,23 @@
       </c>
       <c r="L3" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="M3" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="N3" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="O3" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="P3" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
@@ -1753,11 +1762,11 @@
       <c r="D7" s="37"/>
       <c r="E7" s="38">
         <f t="shared" ref="E7:E92" si="4">COUNTIF(G7:P7,"A")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="39">
         <f t="shared" ref="F7:F92" si="5">COUNTIF(G7:P7,"P")</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G7" s="40" t="s">
         <v>29</v>
@@ -1774,11 +1783,21 @@
       <c r="K7" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="42"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
+      <c r="L7" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
@@ -1804,11 +1823,11 @@
       <c r="D8" s="37"/>
       <c r="E8" s="38">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G8" s="41" t="s">
         <v>30</v>
@@ -1819,17 +1838,27 @@
       <c r="I8" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="43" t="s">
+      <c r="J8" s="44" t="s">
         <v>29</v>
       </c>
       <c r="K8" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="42"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
+      <c r="L8" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
@@ -1855,11 +1884,11 @@
       <c r="D9" s="37"/>
       <c r="E9" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" s="39">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G9" s="41" t="s">
         <v>30</v>
@@ -1876,11 +1905,21 @@
       <c r="K9" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="42"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
+      <c r="L9" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="41" t="s">
+        <v>29</v>
+      </c>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
@@ -1910,7 +1949,7 @@
       </c>
       <c r="F10" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G10" s="41" t="s">
         <v>30</v>
@@ -1927,11 +1966,21 @@
       <c r="K10" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
+      <c r="L10" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O10" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
@@ -1961,7 +2010,7 @@
       </c>
       <c r="F11" s="39">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G11" s="41" t="s">
         <v>29</v>
@@ -1978,11 +2027,21 @@
       <c r="K11" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="42"/>
+      <c r="L11" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O11" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
@@ -2012,7 +2071,7 @@
       </c>
       <c r="F12" s="39">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G12" s="41" t="s">
         <v>30</v>
@@ -2029,11 +2088,21 @@
       <c r="K12" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
+      <c r="L12" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
@@ -2063,7 +2132,7 @@
       </c>
       <c r="F13" s="39">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G13" s="41" t="s">
         <v>29</v>
@@ -2080,11 +2149,21 @@
       <c r="K13" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="L13" s="42"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="38"/>
+      <c r="L13" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O13" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P13" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
@@ -2110,11 +2189,11 @@
       <c r="D14" s="37"/>
       <c r="E14" s="38">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G14" s="41" t="s">
         <v>30</v>
@@ -2131,11 +2210,21 @@
       <c r="K14" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="L14" s="42"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
+      <c r="L14" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N14" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O14" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P14" s="41" t="s">
+        <v>29</v>
+      </c>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
@@ -2161,11 +2250,11 @@
       <c r="D15" s="37"/>
       <c r="E15" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F15" s="39">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G15" s="41" t="s">
         <v>30</v>
@@ -2182,11 +2271,21 @@
       <c r="K15" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="38"/>
+      <c r="L15" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N15" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="O15" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="41" t="s">
+        <v>29</v>
+      </c>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
@@ -2212,11 +2311,11 @@
       <c r="D16" s="37"/>
       <c r="E16" s="38">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16" s="39">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G16" s="41" t="s">
         <v>30</v>
@@ -2224,7 +2323,7 @@
       <c r="H16" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="43" t="s">
+      <c r="I16" s="44" t="s">
         <v>29</v>
       </c>
       <c r="J16" s="41" t="s">
@@ -2233,11 +2332,21 @@
       <c r="K16" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
+      <c r="L16" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="N16" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O16" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P16" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
@@ -2263,11 +2372,11 @@
       <c r="D17" s="37"/>
       <c r="E17" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="39">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G17" s="41" t="s">
         <v>30</v>
@@ -2284,11 +2393,21 @@
       <c r="K17" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
+      <c r="L17" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="M17" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N17" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O17" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P17" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
@@ -2314,11 +2433,11 @@
       <c r="D18" s="37"/>
       <c r="E18" s="38">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G18" s="41" t="s">
         <v>30</v>
@@ -2335,11 +2454,21 @@
       <c r="K18" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
+      <c r="L18" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N18" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O18" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="41" t="s">
+        <v>29</v>
+      </c>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
@@ -2365,11 +2494,11 @@
       <c r="D19" s="37"/>
       <c r="E19" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F19" s="39">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G19" s="41" t="s">
         <v>30</v>
@@ -2386,11 +2515,21 @@
       <c r="K19" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
+      <c r="L19" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M19" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="N19" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="O19" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P19" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
@@ -2416,11 +2555,11 @@
       <c r="D20" s="37"/>
       <c r="E20" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F20" s="39">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G20" s="41" t="s">
         <v>30</v>
@@ -2437,11 +2576,21 @@
       <c r="K20" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L20" s="42"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
+      <c r="L20" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="N20" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="O20" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P20" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
       <c r="S20" s="6"/>
@@ -2467,11 +2616,11 @@
       <c r="D21" s="37"/>
       <c r="E21" s="38">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G21" s="41" t="s">
         <v>30</v>
@@ -2488,11 +2637,21 @@
       <c r="K21" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
+      <c r="L21" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="N21" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O21" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
@@ -2518,11 +2677,11 @@
       <c r="D22" s="37"/>
       <c r="E22" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F22" s="39">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G22" s="41" t="s">
         <v>30</v>
@@ -2539,11 +2698,21 @@
       <c r="K22" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="42"/>
-      <c r="P22" s="38"/>
+      <c r="L22" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M22" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N22" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="O22" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P22" s="41" t="s">
+        <v>29</v>
+      </c>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
@@ -2569,11 +2738,11 @@
       <c r="D23" s="37"/>
       <c r="E23" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="39">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G23" s="41" t="s">
         <v>30</v>
@@ -2590,11 +2759,21 @@
       <c r="K23" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
+      <c r="L23" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M23" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N23" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="O23" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P23" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
@@ -2624,7 +2803,7 @@
       </c>
       <c r="F24" s="39">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G24" s="41" t="s">
         <v>30</v>
@@ -2641,11 +2820,21 @@
       <c r="K24" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
+      <c r="L24" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N24" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O24" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
@@ -2675,7 +2864,7 @@
       </c>
       <c r="F25" s="39">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G25" s="41" t="s">
         <v>30</v>
@@ -2683,7 +2872,7 @@
       <c r="H25" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="I25" s="43" t="s">
+      <c r="I25" s="44" t="s">
         <v>29</v>
       </c>
       <c r="J25" s="41" t="s">
@@ -2692,11 +2881,21 @@
       <c r="K25" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
+      <c r="L25" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M25" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N25" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O25" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P25" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
@@ -2722,11 +2921,11 @@
       <c r="D26" s="37"/>
       <c r="E26" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F26" s="39">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G26" s="41" t="s">
         <v>30</v>
@@ -2743,11 +2942,21 @@
       <c r="K26" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="38"/>
+      <c r="L26" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="M26" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="N26" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O26" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="P26" s="41" t="s">
+        <v>29</v>
+      </c>
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
@@ -2773,11 +2982,11 @@
       <c r="D27" s="37"/>
       <c r="E27" s="38">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G27" s="41" t="s">
         <v>30</v>
@@ -2794,11 +3003,21 @@
       <c r="K27" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="38"/>
+      <c r="L27" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="N27" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O27" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
       <c r="S27" s="6"/>
@@ -2828,7 +3047,7 @@
       </c>
       <c r="F28" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G28" s="41" t="s">
         <v>30</v>
@@ -2845,11 +3064,21 @@
       <c r="K28" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L28" s="42"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="38"/>
-      <c r="P28" s="38"/>
+      <c r="L28" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M28" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N28" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O28" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P28" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
@@ -2875,11 +3104,11 @@
       <c r="D29" s="37"/>
       <c r="E29" s="38">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G29" s="41" t="s">
         <v>30</v>
@@ -2896,11 +3125,21 @@
       <c r="K29" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L29" s="42"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
-      <c r="O29" s="38"/>
-      <c r="P29" s="38"/>
+      <c r="L29" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M29" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="N29" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O29" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P29" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
       <c r="S29" s="6"/>
@@ -2926,11 +3165,11 @@
       <c r="D30" s="37"/>
       <c r="E30" s="38">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G30" s="41" t="s">
         <v>30</v>
@@ -2947,11 +3186,21 @@
       <c r="K30" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
-      <c r="O30" s="38"/>
-      <c r="P30" s="38"/>
+      <c r="L30" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M30" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="N30" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O30" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P30" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
       <c r="S30" s="6"/>
@@ -2981,7 +3230,7 @@
       </c>
       <c r="F31" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G31" s="41" t="s">
         <v>30</v>
@@ -2998,11 +3247,21 @@
       <c r="K31" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L31" s="38"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="38"/>
-      <c r="P31" s="38"/>
+      <c r="L31" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M31" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N31" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O31" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P31" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
       <c r="S31" s="6"/>
@@ -3028,11 +3287,11 @@
       <c r="D32" s="37"/>
       <c r="E32" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="39">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G32" s="41" t="s">
         <v>30</v>
@@ -3049,11 +3308,21 @@
       <c r="K32" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L32" s="42"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="38"/>
-      <c r="P32" s="42"/>
+      <c r="L32" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="M32" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N32" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O32" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P32" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
@@ -3083,7 +3352,7 @@
       </c>
       <c r="F33" s="39">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G33" s="41" t="s">
         <v>29</v>
@@ -3100,11 +3369,21 @@
       <c r="K33" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="L33" s="42"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="38"/>
-      <c r="P33" s="38"/>
+      <c r="L33" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M33" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N33" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O33" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P33" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
@@ -3130,11 +3409,11 @@
       <c r="D34" s="37"/>
       <c r="E34" s="38">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F34" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G34" s="41" t="s">
         <v>30</v>
@@ -3151,11 +3430,21 @@
       <c r="K34" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="42"/>
-      <c r="P34" s="38"/>
+      <c r="L34" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="M34" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="N34" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O34" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="P34" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
       <c r="S34" s="6"/>
@@ -3185,7 +3474,7 @@
       </c>
       <c r="F35" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G35" s="41" t="s">
         <v>30</v>
@@ -3202,11 +3491,21 @@
       <c r="K35" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L35" s="42"/>
-      <c r="M35" s="38"/>
-      <c r="N35" s="38"/>
-      <c r="O35" s="38"/>
-      <c r="P35" s="38"/>
+      <c r="L35" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M35" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N35" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O35" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P35" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
       <c r="S35" s="6"/>
@@ -3232,11 +3531,11 @@
       <c r="D36" s="37"/>
       <c r="E36" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F36" s="39">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G36" s="41" t="s">
         <v>30</v>
@@ -3253,11 +3552,21 @@
       <c r="K36" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="38"/>
-      <c r="O36" s="42"/>
-      <c r="P36" s="42"/>
+      <c r="L36" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="M36" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="N36" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O36" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P36" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
@@ -3283,11 +3592,11 @@
       <c r="D37" s="37"/>
       <c r="E37" s="38">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G37" s="41" t="s">
         <v>30</v>
@@ -3295,7 +3604,7 @@
       <c r="H37" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="I37" s="43" t="s">
+      <c r="I37" s="44" t="s">
         <v>29</v>
       </c>
       <c r="J37" s="41" t="s">
@@ -3304,11 +3613,21 @@
       <c r="K37" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="38"/>
-      <c r="O37" s="38"/>
-      <c r="P37" s="42"/>
+      <c r="L37" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="M37" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N37" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O37" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P37" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
       <c r="S37" s="6"/>
@@ -3334,11 +3653,11 @@
       <c r="D38" s="37"/>
       <c r="E38" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" s="39">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G38" s="41" t="s">
         <v>30</v>
@@ -3355,11 +3674,21 @@
       <c r="K38" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L38" s="38"/>
-      <c r="M38" s="38"/>
-      <c r="N38" s="38"/>
-      <c r="O38" s="38"/>
-      <c r="P38" s="42"/>
+      <c r="L38" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M38" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="N38" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O38" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P38" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
       <c r="S38" s="6"/>
@@ -3385,11 +3714,11 @@
       <c r="D39" s="37"/>
       <c r="E39" s="38">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G39" s="41" t="s">
         <v>30</v>
@@ -3400,17 +3729,27 @@
       <c r="I39" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="J39" s="43" t="s">
+      <c r="J39" s="44" t="s">
         <v>29</v>
       </c>
       <c r="K39" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L39" s="38"/>
-      <c r="M39" s="38"/>
-      <c r="N39" s="42"/>
-      <c r="O39" s="38"/>
-      <c r="P39" s="38"/>
+      <c r="L39" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="M39" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N39" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O39" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P39" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q39" s="6"/>
       <c r="R39" s="6"/>
       <c r="S39" s="6"/>
@@ -3436,11 +3775,11 @@
       <c r="D40" s="37"/>
       <c r="E40" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" s="39">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G40" s="41" t="s">
         <v>30</v>
@@ -3457,11 +3796,21 @@
       <c r="K40" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L40" s="42"/>
-      <c r="M40" s="42"/>
-      <c r="N40" s="42"/>
-      <c r="O40" s="42"/>
-      <c r="P40" s="42"/>
+      <c r="L40" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M40" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N40" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O40" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="P40" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q40" s="6"/>
       <c r="R40" s="6"/>
       <c r="S40" s="6"/>
@@ -3491,7 +3840,7 @@
       </c>
       <c r="F41" s="39">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G41" s="41" t="s">
         <v>30</v>
@@ -3508,11 +3857,21 @@
       <c r="K41" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L41" s="38"/>
-      <c r="M41" s="38"/>
-      <c r="N41" s="42"/>
-      <c r="O41" s="38"/>
-      <c r="P41" s="38"/>
+      <c r="L41" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M41" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N41" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O41" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P41" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q41" s="6"/>
       <c r="R41" s="6"/>
       <c r="S41" s="6"/>
@@ -3538,11 +3897,11 @@
       <c r="D42" s="37"/>
       <c r="E42" s="38">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F42" s="39">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G42" s="41" t="s">
         <v>30</v>
@@ -3550,7 +3909,7 @@
       <c r="H42" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="I42" s="43" t="s">
+      <c r="I42" s="44" t="s">
         <v>29</v>
       </c>
       <c r="J42" s="41" t="s">
@@ -3559,11 +3918,21 @@
       <c r="K42" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L42" s="38"/>
-      <c r="M42" s="38"/>
-      <c r="N42" s="38"/>
-      <c r="O42" s="38"/>
-      <c r="P42" s="38"/>
+      <c r="L42" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M42" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="N42" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O42" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="P42" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q42" s="6"/>
       <c r="R42" s="6"/>
       <c r="S42" s="6"/>
@@ -3593,7 +3962,7 @@
       </c>
       <c r="F43" s="39">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G43" s="41" t="s">
         <v>30</v>
@@ -3610,11 +3979,21 @@
       <c r="K43" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L43" s="38"/>
-      <c r="M43" s="42"/>
-      <c r="N43" s="42"/>
-      <c r="O43" s="38"/>
-      <c r="P43" s="38"/>
+      <c r="L43" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M43" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N43" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O43" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P43" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
       <c r="S43" s="6"/>
@@ -3640,11 +4019,11 @@
       <c r="D44" s="37"/>
       <c r="E44" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" s="39">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G44" s="41" t="s">
         <v>30</v>
@@ -3661,11 +4040,21 @@
       <c r="K44" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L44" s="38"/>
-      <c r="M44" s="42"/>
-      <c r="N44" s="42"/>
-      <c r="O44" s="38"/>
-      <c r="P44" s="38"/>
+      <c r="L44" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="M44" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N44" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O44" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P44" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q44" s="6"/>
       <c r="R44" s="6"/>
       <c r="S44" s="6"/>
@@ -3691,11 +4080,11 @@
       <c r="D45" s="37"/>
       <c r="E45" s="38">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F45" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G45" s="41" t="s">
         <v>30</v>
@@ -3712,11 +4101,21 @@
       <c r="K45" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L45" s="38"/>
-      <c r="M45" s="38"/>
-      <c r="N45" s="38"/>
-      <c r="O45" s="38"/>
-      <c r="P45" s="38"/>
+      <c r="L45" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M45" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="N45" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O45" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P45" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q45" s="6"/>
       <c r="R45" s="6"/>
       <c r="S45" s="6"/>
@@ -3742,11 +4141,11 @@
       <c r="D46" s="37"/>
       <c r="E46" s="38">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G46" s="41" t="s">
         <v>30</v>
@@ -3763,11 +4162,21 @@
       <c r="K46" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L46" s="38"/>
-      <c r="M46" s="38"/>
-      <c r="N46" s="42"/>
-      <c r="O46" s="38"/>
-      <c r="P46" s="38"/>
+      <c r="L46" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M46" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N46" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O46" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P46" s="41" t="s">
+        <v>29</v>
+      </c>
       <c r="Q46" s="6"/>
       <c r="R46" s="6"/>
       <c r="S46" s="6"/>
@@ -3797,7 +4206,7 @@
       </c>
       <c r="F47" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G47" s="41" t="s">
         <v>30</v>
@@ -3814,11 +4223,21 @@
       <c r="K47" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L47" s="38"/>
-      <c r="M47" s="42"/>
-      <c r="N47" s="38"/>
-      <c r="O47" s="38"/>
-      <c r="P47" s="38"/>
+      <c r="L47" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M47" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N47" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O47" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P47" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q47" s="6"/>
       <c r="R47" s="6"/>
       <c r="S47" s="6"/>
@@ -3848,12 +4267,12 @@
       </c>
       <c r="F48" s="39">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G48" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="H48" s="43" t="s">
+      <c r="H48" s="44" t="s">
         <v>29</v>
       </c>
       <c r="I48" s="41" t="s">
@@ -3865,11 +4284,21 @@
       <c r="K48" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L48" s="42"/>
-      <c r="M48" s="38"/>
-      <c r="N48" s="38"/>
-      <c r="O48" s="42"/>
-      <c r="P48" s="42"/>
+      <c r="L48" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M48" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N48" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O48" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P48" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q48" s="6"/>
       <c r="R48" s="6"/>
       <c r="S48" s="6"/>
@@ -3899,7 +4328,7 @@
       </c>
       <c r="F49" s="39">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G49" s="41" t="s">
         <v>30</v>
@@ -3916,11 +4345,21 @@
       <c r="K49" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="L49" s="38"/>
-      <c r="M49" s="38"/>
-      <c r="N49" s="38"/>
-      <c r="O49" s="42"/>
-      <c r="P49" s="38"/>
+      <c r="L49" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M49" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N49" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O49" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P49" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q49" s="6"/>
       <c r="R49" s="6"/>
       <c r="S49" s="6"/>
@@ -3946,11 +4385,11 @@
       <c r="D50" s="37"/>
       <c r="E50" s="38">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F50" s="39">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G50" s="41" t="s">
         <v>29</v>
@@ -3967,11 +4406,21 @@
       <c r="K50" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L50" s="38"/>
-      <c r="M50" s="38"/>
-      <c r="N50" s="38"/>
-      <c r="O50" s="38"/>
-      <c r="P50" s="42"/>
+      <c r="L50" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M50" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="N50" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O50" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P50" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q50" s="6"/>
       <c r="R50" s="6"/>
       <c r="S50" s="6"/>
@@ -3997,11 +4446,11 @@
       <c r="D51" s="37"/>
       <c r="E51" s="38">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F51" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G51" s="41" t="s">
         <v>30</v>
@@ -4018,11 +4467,21 @@
       <c r="K51" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L51" s="38"/>
-      <c r="M51" s="38"/>
-      <c r="N51" s="42"/>
-      <c r="O51" s="38"/>
-      <c r="P51" s="38"/>
+      <c r="L51" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M51" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="N51" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O51" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P51" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q51" s="6"/>
       <c r="R51" s="6"/>
       <c r="S51" s="6"/>
@@ -4048,11 +4507,11 @@
       <c r="D52" s="37"/>
       <c r="E52" s="38">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F52" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G52" s="41" t="s">
         <v>30</v>
@@ -4063,17 +4522,27 @@
       <c r="I52" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="J52" s="43" t="s">
+      <c r="J52" s="44" t="s">
         <v>29</v>
       </c>
       <c r="K52" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L52" s="38"/>
-      <c r="M52" s="38"/>
-      <c r="N52" s="42"/>
-      <c r="O52" s="38"/>
-      <c r="P52" s="38"/>
+      <c r="L52" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M52" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N52" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O52" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P52" s="41" t="s">
+        <v>29</v>
+      </c>
       <c r="Q52" s="6"/>
       <c r="R52" s="6"/>
       <c r="S52" s="6"/>
@@ -4099,11 +4568,11 @@
       <c r="D53" s="37"/>
       <c r="E53" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F53" s="39">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G53" s="41" t="s">
         <v>30</v>
@@ -4120,11 +4589,21 @@
       <c r="K53" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L53" s="38"/>
-      <c r="M53" s="42"/>
-      <c r="N53" s="42"/>
-      <c r="O53" s="38"/>
-      <c r="P53" s="38"/>
+      <c r="L53" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="M53" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N53" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="O53" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P53" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q53" s="6"/>
       <c r="R53" s="6"/>
       <c r="S53" s="6"/>
@@ -4150,11 +4629,11 @@
       <c r="D54" s="37"/>
       <c r="E54" s="38">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F54" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G54" s="41" t="s">
         <v>30</v>
@@ -4171,11 +4650,21 @@
       <c r="K54" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L54" s="38"/>
-      <c r="M54" s="38"/>
-      <c r="N54" s="42"/>
-      <c r="O54" s="38"/>
-      <c r="P54" s="38"/>
+      <c r="L54" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="M54" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N54" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O54" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P54" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q54" s="6"/>
       <c r="R54" s="6"/>
       <c r="S54" s="6"/>
@@ -4201,11 +4690,11 @@
       <c r="D55" s="37"/>
       <c r="E55" s="38">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F55" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G55" s="41" t="s">
         <v>30</v>
@@ -4222,11 +4711,21 @@
       <c r="K55" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L55" s="42"/>
-      <c r="M55" s="38"/>
-      <c r="N55" s="38"/>
-      <c r="O55" s="38"/>
-      <c r="P55" s="38"/>
+      <c r="L55" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="M55" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N55" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O55" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P55" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q55" s="6"/>
       <c r="R55" s="6"/>
       <c r="S55" s="6"/>
@@ -4256,7 +4755,7 @@
       </c>
       <c r="F56" s="39">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G56" s="41" t="s">
         <v>30</v>
@@ -4273,11 +4772,21 @@
       <c r="K56" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L56" s="38"/>
-      <c r="M56" s="38"/>
-      <c r="N56" s="38"/>
-      <c r="O56" s="38"/>
-      <c r="P56" s="38"/>
+      <c r="L56" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M56" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N56" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O56" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P56" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q56" s="6"/>
       <c r="R56" s="6"/>
       <c r="S56" s="6"/>
@@ -4303,11 +4812,11 @@
       <c r="D57" s="37"/>
       <c r="E57" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F57" s="39">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G57" s="41" t="s">
         <v>30</v>
@@ -4324,11 +4833,21 @@
       <c r="K57" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L57" s="42"/>
-      <c r="M57" s="38"/>
-      <c r="N57" s="38"/>
-      <c r="O57" s="38"/>
-      <c r="P57" s="38"/>
+      <c r="L57" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="M57" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N57" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O57" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P57" s="41" t="s">
+        <v>29</v>
+      </c>
       <c r="Q57" s="6"/>
       <c r="R57" s="6"/>
       <c r="S57" s="6"/>
@@ -4358,7 +4877,7 @@
       </c>
       <c r="F58" s="39">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G58" s="41" t="s">
         <v>30</v>
@@ -4375,11 +4894,21 @@
       <c r="K58" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L58" s="38"/>
-      <c r="M58" s="38"/>
-      <c r="N58" s="38"/>
-      <c r="O58" s="38"/>
-      <c r="P58" s="38"/>
+      <c r="L58" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M58" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N58" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O58" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P58" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q58" s="6"/>
       <c r="R58" s="6"/>
       <c r="S58" s="6"/>
@@ -4405,11 +4934,11 @@
       <c r="D59" s="37"/>
       <c r="E59" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" s="39">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G59" s="41" t="s">
         <v>30</v>
@@ -4426,11 +4955,21 @@
       <c r="K59" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L59" s="38"/>
-      <c r="M59" s="42"/>
-      <c r="N59" s="38"/>
-      <c r="O59" s="38"/>
-      <c r="P59" s="38"/>
+      <c r="L59" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M59" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="N59" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O59" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P59" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q59" s="6"/>
       <c r="R59" s="6"/>
       <c r="S59" s="6"/>
@@ -4460,7 +4999,7 @@
       </c>
       <c r="F60" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G60" s="41" t="s">
         <v>30</v>
@@ -4477,11 +5016,21 @@
       <c r="K60" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L60" s="42"/>
-      <c r="M60" s="38"/>
-      <c r="N60" s="38"/>
-      <c r="O60" s="38"/>
-      <c r="P60" s="38"/>
+      <c r="L60" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M60" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N60" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O60" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P60" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q60" s="6"/>
       <c r="R60" s="6"/>
       <c r="S60" s="6"/>
@@ -4507,11 +5056,11 @@
       <c r="D61" s="37"/>
       <c r="E61" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" s="39">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G61" s="41" t="s">
         <v>30</v>
@@ -4528,11 +5077,21 @@
       <c r="K61" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L61" s="38"/>
-      <c r="M61" s="38"/>
-      <c r="N61" s="38"/>
-      <c r="O61" s="38"/>
-      <c r="P61" s="38"/>
+      <c r="L61" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M61" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="N61" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O61" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P61" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q61" s="6"/>
       <c r="R61" s="6"/>
       <c r="S61" s="6"/>
@@ -4558,11 +5117,11 @@
       <c r="D62" s="37"/>
       <c r="E62" s="38">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F62" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G62" s="41" t="s">
         <v>30</v>
@@ -4579,11 +5138,21 @@
       <c r="K62" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="L62" s="38"/>
-      <c r="M62" s="38"/>
-      <c r="N62" s="38"/>
-      <c r="O62" s="38"/>
-      <c r="P62" s="38"/>
+      <c r="L62" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="M62" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N62" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O62" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P62" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q62" s="6"/>
       <c r="R62" s="6"/>
       <c r="S62" s="6"/>
@@ -4609,11 +5178,11 @@
       <c r="D63" s="37"/>
       <c r="E63" s="38">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F63" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G63" s="41" t="s">
         <v>30</v>
@@ -4630,11 +5199,21 @@
       <c r="K63" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="L63" s="38"/>
-      <c r="M63" s="42"/>
-      <c r="N63" s="38"/>
-      <c r="O63" s="38"/>
-      <c r="P63" s="38"/>
+      <c r="L63" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M63" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="N63" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O63" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P63" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q63" s="6"/>
       <c r="R63" s="6"/>
       <c r="S63" s="6"/>
@@ -4664,7 +5243,7 @@
       </c>
       <c r="F64" s="39">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G64" s="41" t="s">
         <v>30</v>
@@ -4681,11 +5260,21 @@
       <c r="K64" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L64" s="38"/>
-      <c r="M64" s="38"/>
-      <c r="N64" s="38"/>
-      <c r="O64" s="38"/>
-      <c r="P64" s="38"/>
+      <c r="L64" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M64" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N64" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O64" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P64" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q64" s="6"/>
       <c r="R64" s="6"/>
       <c r="S64" s="6"/>
@@ -4711,11 +5300,11 @@
       <c r="D65" s="37"/>
       <c r="E65" s="38">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F65" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G65" s="41" t="s">
         <v>30</v>
@@ -4726,17 +5315,27 @@
       <c r="I65" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="J65" s="43" t="s">
+      <c r="J65" s="44" t="s">
         <v>29</v>
       </c>
       <c r="K65" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L65" s="38"/>
-      <c r="M65" s="38"/>
-      <c r="N65" s="38"/>
-      <c r="O65" s="38"/>
-      <c r="P65" s="38"/>
+      <c r="L65" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="M65" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N65" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O65" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P65" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q65" s="6"/>
       <c r="R65" s="6"/>
       <c r="S65" s="6"/>
@@ -4762,11 +5361,11 @@
       <c r="D66" s="37"/>
       <c r="E66" s="38">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F66" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G66" s="41" t="s">
         <v>30</v>
@@ -4783,11 +5382,21 @@
       <c r="K66" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L66" s="42"/>
-      <c r="M66" s="38"/>
-      <c r="N66" s="38"/>
-      <c r="O66" s="38"/>
-      <c r="P66" s="42"/>
+      <c r="L66" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M66" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N66" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O66" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P66" s="44" t="s">
+        <v>29</v>
+      </c>
       <c r="Q66" s="6"/>
       <c r="R66" s="6"/>
       <c r="S66" s="6"/>
@@ -4813,11 +5422,11 @@
       <c r="D67" s="37"/>
       <c r="E67" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F67" s="39">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G67" s="41" t="s">
         <v>30</v>
@@ -4834,11 +5443,21 @@
       <c r="K67" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L67" s="38"/>
-      <c r="M67" s="38"/>
-      <c r="N67" s="38"/>
-      <c r="O67" s="38"/>
-      <c r="P67" s="38"/>
+      <c r="L67" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M67" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N67" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="O67" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="P67" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q67" s="6"/>
       <c r="R67" s="6"/>
       <c r="S67" s="6"/>
@@ -4868,7 +5487,7 @@
       </c>
       <c r="F68" s="39">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G68" s="41" t="s">
         <v>30</v>
@@ -4885,11 +5504,21 @@
       <c r="K68" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="L68" s="38"/>
-      <c r="M68" s="38"/>
-      <c r="N68" s="38"/>
-      <c r="O68" s="38"/>
-      <c r="P68" s="38"/>
+      <c r="L68" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M68" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N68" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O68" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P68" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q68" s="6"/>
       <c r="R68" s="6"/>
       <c r="S68" s="6"/>
@@ -4915,11 +5544,11 @@
       <c r="D69" s="37"/>
       <c r="E69" s="38">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F69" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G69" s="41" t="s">
         <v>30</v>
@@ -4936,11 +5565,21 @@
       <c r="K69" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L69" s="38"/>
-      <c r="M69" s="42"/>
-      <c r="N69" s="38"/>
-      <c r="O69" s="38"/>
-      <c r="P69" s="38"/>
+      <c r="L69" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M69" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N69" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O69" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="P69" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q69" s="6"/>
       <c r="R69" s="6"/>
       <c r="S69" s="6"/>
@@ -4966,11 +5605,11 @@
       <c r="D70" s="37"/>
       <c r="E70" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F70" s="39">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G70" s="41" t="s">
         <v>30</v>
@@ -4987,11 +5626,21 @@
       <c r="K70" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L70" s="38"/>
-      <c r="M70" s="38"/>
-      <c r="N70" s="38"/>
-      <c r="O70" s="38"/>
-      <c r="P70" s="38"/>
+      <c r="L70" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M70" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="N70" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O70" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P70" s="41" t="s">
+        <v>29</v>
+      </c>
       <c r="Q70" s="6"/>
       <c r="R70" s="6"/>
       <c r="S70" s="6"/>
@@ -5017,11 +5666,11 @@
       <c r="D71" s="37"/>
       <c r="E71" s="38">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F71" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G71" s="41" t="s">
         <v>30</v>
@@ -5038,11 +5687,21 @@
       <c r="K71" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L71" s="38"/>
-      <c r="M71" s="38"/>
-      <c r="N71" s="42"/>
-      <c r="O71" s="38"/>
-      <c r="P71" s="38"/>
+      <c r="L71" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="M71" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N71" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O71" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P71" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q71" s="6"/>
       <c r="R71" s="6"/>
       <c r="S71" s="6"/>
@@ -5072,7 +5731,7 @@
       </c>
       <c r="F72" s="39">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G72" s="41" t="s">
         <v>30</v>
@@ -5089,11 +5748,21 @@
       <c r="K72" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L72" s="38"/>
-      <c r="M72" s="42"/>
-      <c r="N72" s="42"/>
-      <c r="O72" s="38"/>
-      <c r="P72" s="38"/>
+      <c r="L72" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M72" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N72" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O72" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P72" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q72" s="6"/>
       <c r="R72" s="6"/>
       <c r="S72" s="6"/>
@@ -5123,7 +5792,7 @@
       </c>
       <c r="F73" s="39">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G73" s="41" t="s">
         <v>30</v>
@@ -5140,11 +5809,21 @@
       <c r="K73" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L73" s="42"/>
-      <c r="M73" s="38"/>
-      <c r="N73" s="38"/>
-      <c r="O73" s="38"/>
-      <c r="P73" s="38"/>
+      <c r="L73" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M73" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N73" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O73" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P73" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q73" s="6"/>
       <c r="R73" s="6"/>
       <c r="S73" s="6"/>
@@ -5174,7 +5853,7 @@
       </c>
       <c r="F74" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G74" s="41" t="s">
         <v>30</v>
@@ -5191,11 +5870,21 @@
       <c r="K74" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L74" s="38"/>
-      <c r="M74" s="38"/>
-      <c r="N74" s="38"/>
-      <c r="O74" s="38"/>
-      <c r="P74" s="38"/>
+      <c r="L74" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M74" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N74" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O74" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P74" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q74" s="6"/>
       <c r="R74" s="6"/>
       <c r="S74" s="6"/>
@@ -5221,11 +5910,11 @@
       <c r="D75" s="37"/>
       <c r="E75" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F75" s="39">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G75" s="41" t="s">
         <v>30</v>
@@ -5242,11 +5931,21 @@
       <c r="K75" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L75" s="38"/>
-      <c r="M75" s="42"/>
-      <c r="N75" s="38"/>
-      <c r="O75" s="38"/>
-      <c r="P75" s="38"/>
+      <c r="L75" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M75" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N75" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="O75" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P75" s="41" t="s">
+        <v>29</v>
+      </c>
       <c r="Q75" s="6"/>
       <c r="R75" s="6"/>
       <c r="S75" s="6"/>
@@ -5276,7 +5975,7 @@
       </c>
       <c r="F76" s="39">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G76" s="41" t="s">
         <v>30</v>
@@ -5293,11 +5992,21 @@
       <c r="K76" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L76" s="38"/>
-      <c r="M76" s="38"/>
-      <c r="N76" s="42"/>
-      <c r="O76" s="38"/>
-      <c r="P76" s="38"/>
+      <c r="L76" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M76" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N76" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O76" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P76" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q76" s="6"/>
       <c r="R76" s="6"/>
       <c r="S76" s="6"/>
@@ -5323,11 +6032,11 @@
       <c r="D77" s="37"/>
       <c r="E77" s="38">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F77" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G77" s="41" t="s">
         <v>30</v>
@@ -5335,7 +6044,7 @@
       <c r="H77" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="I77" s="43" t="s">
+      <c r="I77" s="44" t="s">
         <v>29</v>
       </c>
       <c r="J77" s="41" t="s">
@@ -5344,11 +6053,21 @@
       <c r="K77" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L77" s="38"/>
-      <c r="M77" s="38"/>
-      <c r="N77" s="38"/>
-      <c r="O77" s="42"/>
-      <c r="P77" s="42"/>
+      <c r="L77" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M77" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N77" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="O77" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P77" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q77" s="6"/>
       <c r="R77" s="6"/>
       <c r="S77" s="6"/>
@@ -5378,9 +6097,9 @@
       </c>
       <c r="F78" s="39">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="G78" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="G78" s="44" t="s">
         <v>29</v>
       </c>
       <c r="H78" s="41" t="s">
@@ -5395,11 +6114,21 @@
       <c r="K78" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L78" s="38"/>
-      <c r="M78" s="38"/>
-      <c r="N78" s="42"/>
-      <c r="O78" s="38"/>
-      <c r="P78" s="38"/>
+      <c r="L78" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M78" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N78" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O78" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P78" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q78" s="6"/>
       <c r="R78" s="6"/>
       <c r="S78" s="6"/>
@@ -5429,12 +6158,12 @@
       </c>
       <c r="F79" s="39">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G79" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="H79" s="43" t="s">
+      <c r="H79" s="44" t="s">
         <v>29</v>
       </c>
       <c r="I79" s="41" t="s">
@@ -5446,11 +6175,21 @@
       <c r="K79" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L79" s="38"/>
-      <c r="M79" s="38"/>
-      <c r="N79" s="38"/>
-      <c r="O79" s="38"/>
-      <c r="P79" s="42"/>
+      <c r="L79" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M79" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N79" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O79" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P79" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q79" s="6"/>
       <c r="R79" s="6"/>
       <c r="S79" s="6"/>
@@ -5476,11 +6215,11 @@
       <c r="D80" s="37"/>
       <c r="E80" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F80" s="39">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G80" s="41" t="s">
         <v>30</v>
@@ -5497,11 +6236,21 @@
       <c r="K80" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L80" s="42"/>
-      <c r="M80" s="42"/>
-      <c r="N80" s="38"/>
-      <c r="O80" s="38"/>
-      <c r="P80" s="38"/>
+      <c r="L80" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M80" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N80" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="O80" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P80" s="41" t="s">
+        <v>29</v>
+      </c>
       <c r="Q80" s="6"/>
       <c r="R80" s="6"/>
       <c r="S80" s="6"/>
@@ -5527,11 +6276,11 @@
       <c r="D81" s="37"/>
       <c r="E81" s="38">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F81" s="39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G81" s="41" t="s">
         <v>30</v>
@@ -5548,11 +6297,21 @@
       <c r="K81" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L81" s="38"/>
-      <c r="M81" s="38"/>
-      <c r="N81" s="38"/>
-      <c r="O81" s="38"/>
-      <c r="P81" s="42"/>
+      <c r="L81" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M81" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N81" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O81" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P81" s="44" t="s">
+        <v>29</v>
+      </c>
       <c r="Q81" s="6"/>
       <c r="R81" s="6"/>
       <c r="S81" s="6"/>
@@ -5582,7 +6341,7 @@
       </c>
       <c r="F82" s="39">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G82" s="41" t="s">
         <v>30</v>
@@ -5599,11 +6358,21 @@
       <c r="K82" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L82" s="38"/>
-      <c r="M82" s="38"/>
-      <c r="N82" s="38"/>
-      <c r="O82" s="38"/>
-      <c r="P82" s="38"/>
+      <c r="L82" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M82" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N82" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O82" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P82" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q82" s="6"/>
       <c r="R82" s="6"/>
       <c r="S82" s="6"/>
@@ -5629,11 +6398,11 @@
       <c r="D83" s="37"/>
       <c r="E83" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F83" s="39">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G83" s="41" t="s">
         <v>30</v>
@@ -5650,11 +6419,21 @@
       <c r="K83" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L83" s="42"/>
-      <c r="M83" s="38"/>
-      <c r="N83" s="38"/>
-      <c r="O83" s="38"/>
-      <c r="P83" s="38"/>
+      <c r="L83" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="M83" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N83" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O83" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P83" s="41" t="s">
+        <v>29</v>
+      </c>
       <c r="Q83" s="6"/>
       <c r="R83" s="6"/>
       <c r="S83" s="6"/>
@@ -5680,11 +6459,11 @@
       <c r="D84" s="37"/>
       <c r="E84" s="38">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F84" s="39">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G84" s="41" t="s">
         <v>29</v>
@@ -5701,11 +6480,21 @@
       <c r="K84" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L84" s="42"/>
-      <c r="M84" s="42"/>
-      <c r="N84" s="38"/>
-      <c r="O84" s="38"/>
-      <c r="P84" s="38"/>
+      <c r="L84" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M84" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N84" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="O84" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P84" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q84" s="6"/>
       <c r="R84" s="6"/>
       <c r="S84" s="6"/>
@@ -5735,7 +6524,7 @@
       </c>
       <c r="F85" s="39">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G85" s="41" t="s">
         <v>30</v>
@@ -5752,11 +6541,21 @@
       <c r="K85" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L85" s="38"/>
-      <c r="M85" s="38"/>
-      <c r="N85" s="42"/>
-      <c r="O85" s="38"/>
-      <c r="P85" s="38"/>
+      <c r="L85" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M85" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N85" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O85" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P85" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q85" s="6"/>
       <c r="R85" s="6"/>
       <c r="S85" s="6"/>
@@ -5786,7 +6585,7 @@
       </c>
       <c r="F86" s="39">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G86" s="41" t="s">
         <v>30</v>
@@ -5803,11 +6602,21 @@
       <c r="K86" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L86" s="42"/>
-      <c r="M86" s="38"/>
-      <c r="N86" s="42"/>
-      <c r="O86" s="38"/>
-      <c r="P86" s="38"/>
+      <c r="L86" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M86" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N86" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O86" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P86" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="Q86" s="6"/>
       <c r="R86" s="6"/>
       <c r="S86" s="6"/>
@@ -5821,12 +6630,12 @@
       <c r="AA86" s="6"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="44">
+      <c r="A87" s="45">
         <v>81.0</v>
       </c>
-      <c r="B87" s="45"/>
-      <c r="C87" s="45"/>
-      <c r="D87" s="46"/>
+      <c r="B87" s="46"/>
+      <c r="C87" s="46"/>
+      <c r="D87" s="47"/>
       <c r="E87" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5835,16 +6644,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G87" s="46"/>
-      <c r="H87" s="46"/>
-      <c r="I87" s="46"/>
-      <c r="J87" s="46"/>
-      <c r="K87" s="46"/>
-      <c r="L87" s="46"/>
-      <c r="M87" s="46"/>
-      <c r="N87" s="46"/>
-      <c r="O87" s="46"/>
-      <c r="P87" s="46"/>
+      <c r="G87" s="47"/>
+      <c r="H87" s="47"/>
+      <c r="I87" s="47"/>
+      <c r="J87" s="47"/>
+      <c r="K87" s="47"/>
+      <c r="L87" s="47"/>
+      <c r="M87" s="47"/>
+      <c r="N87" s="47"/>
+      <c r="O87" s="47"/>
+      <c r="P87" s="47"/>
       <c r="Q87" s="6"/>
       <c r="R87" s="6"/>
       <c r="S87" s="6"/>
@@ -5858,12 +6667,12 @@
       <c r="AA87" s="6"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="44">
+      <c r="A88" s="45">
         <v>82.0</v>
       </c>
-      <c r="B88" s="47"/>
-      <c r="C88" s="47"/>
-      <c r="D88" s="46"/>
+      <c r="B88" s="48"/>
+      <c r="C88" s="48"/>
+      <c r="D88" s="47"/>
       <c r="E88" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5872,16 +6681,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G88" s="46"/>
-      <c r="H88" s="46"/>
-      <c r="I88" s="46"/>
-      <c r="J88" s="46"/>
-      <c r="K88" s="46"/>
-      <c r="L88" s="46"/>
-      <c r="M88" s="46"/>
-      <c r="N88" s="46"/>
-      <c r="O88" s="46"/>
-      <c r="P88" s="46"/>
+      <c r="G88" s="47"/>
+      <c r="H88" s="47"/>
+      <c r="I88" s="47"/>
+      <c r="J88" s="47"/>
+      <c r="K88" s="47"/>
+      <c r="L88" s="47"/>
+      <c r="M88" s="47"/>
+      <c r="N88" s="47"/>
+      <c r="O88" s="47"/>
+      <c r="P88" s="47"/>
       <c r="Q88" s="6"/>
       <c r="R88" s="6"/>
       <c r="S88" s="6"/>
@@ -5895,12 +6704,12 @@
       <c r="AA88" s="6"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="44">
+      <c r="A89" s="45">
         <v>83.0</v>
       </c>
-      <c r="B89" s="47"/>
-      <c r="C89" s="47"/>
-      <c r="D89" s="46"/>
+      <c r="B89" s="48"/>
+      <c r="C89" s="48"/>
+      <c r="D89" s="47"/>
       <c r="E89" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5909,16 +6718,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G89" s="46"/>
-      <c r="H89" s="46"/>
-      <c r="I89" s="46"/>
-      <c r="J89" s="46"/>
-      <c r="K89" s="46"/>
-      <c r="L89" s="46"/>
-      <c r="M89" s="46"/>
-      <c r="N89" s="46"/>
-      <c r="O89" s="46"/>
-      <c r="P89" s="46"/>
+      <c r="G89" s="47"/>
+      <c r="H89" s="47"/>
+      <c r="I89" s="47"/>
+      <c r="J89" s="47"/>
+      <c r="K89" s="47"/>
+      <c r="L89" s="47"/>
+      <c r="M89" s="47"/>
+      <c r="N89" s="47"/>
+      <c r="O89" s="47"/>
+      <c r="P89" s="47"/>
       <c r="Q89" s="6"/>
       <c r="R89" s="6"/>
       <c r="S89" s="6"/>
@@ -5932,12 +6741,12 @@
       <c r="AA89" s="6"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="44">
+      <c r="A90" s="45">
         <v>84.0</v>
       </c>
-      <c r="B90" s="47"/>
-      <c r="C90" s="47"/>
-      <c r="D90" s="46"/>
+      <c r="B90" s="48"/>
+      <c r="C90" s="48"/>
+      <c r="D90" s="47"/>
       <c r="E90" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5946,16 +6755,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G90" s="46"/>
-      <c r="H90" s="46"/>
-      <c r="I90" s="46"/>
-      <c r="J90" s="46"/>
-      <c r="K90" s="46"/>
-      <c r="L90" s="46"/>
-      <c r="M90" s="46"/>
-      <c r="N90" s="46"/>
-      <c r="O90" s="46"/>
-      <c r="P90" s="46"/>
+      <c r="G90" s="47"/>
+      <c r="H90" s="47"/>
+      <c r="I90" s="47"/>
+      <c r="J90" s="47"/>
+      <c r="K90" s="47"/>
+      <c r="L90" s="47"/>
+      <c r="M90" s="47"/>
+      <c r="N90" s="47"/>
+      <c r="O90" s="47"/>
+      <c r="P90" s="47"/>
       <c r="Q90" s="6"/>
       <c r="R90" s="6"/>
       <c r="S90" s="6"/>
@@ -5969,12 +6778,12 @@
       <c r="AA90" s="6"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="44">
+      <c r="A91" s="45">
         <v>85.0</v>
       </c>
-      <c r="B91" s="47"/>
-      <c r="C91" s="47"/>
-      <c r="D91" s="46"/>
+      <c r="B91" s="48"/>
+      <c r="C91" s="48"/>
+      <c r="D91" s="47"/>
       <c r="E91" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5983,16 +6792,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G91" s="46"/>
-      <c r="H91" s="46"/>
-      <c r="I91" s="46"/>
-      <c r="J91" s="46"/>
-      <c r="K91" s="46"/>
-      <c r="L91" s="46"/>
-      <c r="M91" s="46"/>
-      <c r="N91" s="46"/>
-      <c r="O91" s="46"/>
-      <c r="P91" s="46"/>
+      <c r="G91" s="47"/>
+      <c r="H91" s="47"/>
+      <c r="I91" s="47"/>
+      <c r="J91" s="47"/>
+      <c r="K91" s="47"/>
+      <c r="L91" s="47"/>
+      <c r="M91" s="47"/>
+      <c r="N91" s="47"/>
+      <c r="O91" s="47"/>
+      <c r="P91" s="47"/>
       <c r="Q91" s="6"/>
       <c r="R91" s="6"/>
       <c r="S91" s="6"/>
@@ -6006,12 +6815,12 @@
       <c r="AA91" s="6"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="48">
+      <c r="A92" s="49">
         <v>86.0</v>
       </c>
-      <c r="B92" s="49"/>
-      <c r="C92" s="49"/>
-      <c r="D92" s="50"/>
+      <c r="B92" s="50"/>
+      <c r="C92" s="50"/>
+      <c r="D92" s="51"/>
       <c r="E92" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6020,16 +6829,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G92" s="46"/>
-      <c r="H92" s="46"/>
-      <c r="I92" s="46"/>
-      <c r="J92" s="46"/>
-      <c r="K92" s="46"/>
-      <c r="L92" s="46"/>
-      <c r="M92" s="46"/>
-      <c r="N92" s="46"/>
-      <c r="O92" s="46"/>
-      <c r="P92" s="46"/>
+      <c r="G92" s="47"/>
+      <c r="H92" s="47"/>
+      <c r="I92" s="47"/>
+      <c r="J92" s="47"/>
+      <c r="K92" s="47"/>
+      <c r="L92" s="47"/>
+      <c r="M92" s="47"/>
+      <c r="N92" s="47"/>
+      <c r="O92" s="47"/>
+      <c r="P92" s="47"/>
       <c r="Q92" s="6"/>
       <c r="R92" s="6"/>
       <c r="S92" s="6"/>
